--- a/Excel/chirp.xlsx
+++ b/Excel/chirp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Chirp - Audacity Manual</t>
   </si>
@@ -103,10 +97,7 @@
     <t>Manage gives a dropdown menu enabling you to manage presets for the tool and to see some detail about the tool. For details see Manage presets</t>
   </si>
   <si>
-    <t>Preview plays a short preview of what the audio would sound like if the effect is applied with the current settings, without making actual changes to the audio.</t>
-  </si>
-  <si>
-    <t>The length of preview is determined by your setting in Edit &gt; Preferences &gt; Playback, the default setting is 6 seconds.</t>
+    <t>Preview plays a short preview of what the audio would sound like if the effect is applied with the current settings, without making actual changes to the audio.  The length of preview is determined by your setting in Edit &gt; Preferences &gt; Playback, the default setting is 6 seconds.</t>
   </si>
   <si>
     <t>OK applies the effect to the selected audio with the current effect settings and closes the dialog</t>
@@ -118,125 +109,104 @@
     <t>brings you to the appropriate page in the Manual, this page</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>|&lt; Index of Effects, Generators and Analyzers</t>
-  </si>
-  <si>
-    <t>|&lt; Generate Menu</t>
-  </si>
-  <si>
-    <t>चिप - ऑडॅसीटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>किलबिलाट</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>चिरप चार वेगवेगळ्या प्रकारचे टोन तयार करते.</t>
-  </si>
-  <si>
-    <t>याद्वारे प्रवेश केलेले: व्युत्पन्न&gt; चिप्स ...</t>
-  </si>
-  <si>
-    <t>उपरोक्त प्रतिमा व्युत्पन्न केलेल्या ऑडिओसह निवड प्रदेशाच्या जागी प्रतिबिंबित करते.</t>
-  </si>
-  <si>
-    <t>चिरप टोन जनरेटर सारख्या चार वेगवेगळ्या प्रकारच्या टोनची निर्मिती करते परंतु त्याव्यतिरिक्त प्रारंभ व अंत मोठेपणा आणि वारंवारता सेट करण्यास अनुमती देते. बर्ड-कॉल प्रमाणेच लहान टोन खूप आवाज केला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>वेव्हफॉर्म</t>
-  </si>
-  <si>
-    <t>चार वेगवेगळ्या टोन वेवफॉर्मपैकी एक व्युत्पन्न करते. वेव्हफॉर्मचे प्रत्येक चक्र पाहण्यासाठी पुरेसा झूम केल्यावर प्रत्येक टोनचे नाव त्याच्या देखाव्याचे अंदाजे वर्णन करते.</t>
-  </si>
-  <si>
-    <t>साईनः एक गणिती वक्र जे एक गुळगुळीत पुनरावृत्ती दोलन वर्णन करते. यात ओव्हरटेन्स नसतात म्हणून खूप "शुद्ध" वाटतात.</t>
-  </si>
-  <si>
-    <t>चौरस: त्यांच्या दरम्यान जवळ-उभ्या रेषांसह समान कालावधीची जास्तीत जास्त आणि किमान मूल्ये निश्चित केली आहेत, ज्याला वैशिष्ट्यपूर्ण "वाडा बुर्ज" आकार दिला जातो. यात प्रत्येक इतर ओव्हरटोन असतो. स्क्वेअर वेव्ह्स एकसारखे शिखर आणि आरएमएस पातळी असल्यामुळे वेगळे केले जातात आणि म्हणून त्यांचे वेव्हफॉर्म झूम कमी झाल्यावर पूर्णपणे हलके निळे दर्शवितात.</t>
-  </si>
-  <si>
-    <t>सावटूथः हळूहळू वरच्या बाजूस उतार असून त्यानंतर खालच्या दिशेने उतार होतो. यात सर्व ओव्हरटेन्स आहेत, म्हणून खूप "अनुनासिक", "तेजस्वी" आणि भेदक वाटते.</t>
-  </si>
-  <si>
-    <t>स्क्वेअर (उपनाव नाही): स्क्वेअर वेव्हसारखेच परंतु अलियासिंग विकृती तयार करत नाही. हे टोन व्युत्पन्न करण्यास अधिक वेळ देईल.</t>
+    <t>चीर्प्स - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>चीर्प्स</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा:सुचालन ,शोध</t>
+  </si>
+  <si>
+    <t>चीर्प्स चार वेगवेगळ्या प्रकारचे स्वर तयार करते.</t>
+  </si>
+  <si>
+    <t>याद्वारे प्रवेश केलेले: व्युत्पन्न&gt; चीर्प्स्स ...</t>
+  </si>
+  <si>
+    <t>उपरोक्त प्रतिमा व्युत्पन्न केलेल्या ध्वनीसह निवड प्रदेशाच्या जागी प्रतिबिंबित करते.</t>
+  </si>
+  <si>
+    <t>चीर्प्सस्वर निर्माता सारख्या चार वेगवेगळ्या प्रकारच्या स्वरची निर्मिती करतेपरंतु त्याव्यतिरिक्त प्रारंभ व अंत मोठेपणा आणि वारंवारता निवड करण्यास अनुमती देते.बर्ड-कॉल प्रमाणेच लहान स्वर खूप आवाज केला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>तरंगरूप</t>
+  </si>
+  <si>
+    <t>चार वेगवेगळ्या स्वरतरंगरूपपैकी एक व्युत्पन्नकरते .तरंगरूपचे प्रत्येकचक्र पाहण्यासाठी पुरेसादृश्य आकार केल्यावर प्रत्येक स्वरचे नाव त्याच्या देखाव्याचे अंदाजे वर्णन करते.</t>
+  </si>
+  <si>
+    <t>साईनः एक गणिती वक्र जे एक गुळगुळीत पुनरावृत्ती दोलन वर्णन करते.यातध्वन्यर्थ नसतातम्हणून खूप "शुद्ध"वाटतात .</t>
+  </si>
+  <si>
+    <t>चौरस: एक वैशिष्ट्यपूर्ण "वाडा बुर्ज" आकार देऊन, त्यांच्या दरम्यान जवळ-उभ्या रेषेसह समान कालावधीची जास्तीत जास्त आणि किमान मूल्ये निश्चित केली आहेत.यात प्रत्येक इतर ओव्हरस्वर असतो.चौरस तरंग्स एकसारखे शिखर आणिआरएमएस पातळीअसल्यामुळे वेगळे केले जातातआणि म्हणून त्यांचे तरंगरूप दृश्यआकार कमी झाल्यावर पूर्णपणे हलके निळे दर्शवितात.</t>
+  </si>
+  <si>
+    <t>सावटूथः हळूहळू वरच्या बाजूस उतार असून त्यानंतर खालच्या दिशेने उतार होतो.यात सर्व ध्वन्यर्थ आहेत, म्हणून खूप "अनुनासिक", "तेजस्वी" आणि भेदक वाटते.</t>
+  </si>
+  <si>
+    <t>चौरस (उपनाव नाही): चौरस तरंगसारखेच परंतुउर्फ नाव विकृतीतयार करत नाही.हे स्वर व्युत्पन्न करण्यास अधिक वेळ घेते.</t>
   </si>
   <si>
     <t>वारंवारता</t>
   </si>
   <si>
-    <t>टोन प्रमाणेच, निवड टूलबारमध्ये दर्शविल्यानुसार 1 हर्ट्ज ते चालू प्रकल्प दर अर्ध्या दरम्यान कुठेही निर्दिष्ट केले जाऊ शकते.</t>
+    <t>म्हणूनस्वर , वारंवारता 1 कुठेही दरम्यान निर्देशीत करणे शक्य आहेHz आणिअर्धा मध्ये दाखवल्याप्रमाणे वर्तमान प्रकल्प दरनिवड साधनपट्टी .</t>
   </si>
   <si>
     <t>मोठेपणा</t>
   </si>
   <si>
-    <t>आपणास व्युत्पन्न केलेल्या ऑडिओच्या मोठ्यातेसाठी मोठेपणाचे मूल्य टाइप करू देते. परवानगी दिलेली मूल्ये ० (मौन) आणि १ (क्लीपिंगशिवाय जास्तीत जास्त संभाव्य खंड) दरम्यान आहेत, ०.8 च्या डीफॉल्टसह.</t>
+    <t>आपणास व्युत्पन्न केलेल्या ध्वनीच्या मोठ्यातेसाठीमोठेपणाचे मूल्य लेखन करू देते.परवानगी दिलेली मूल्ये ० (मौन) आणि १ (क्लीपिंगशिवाय जास्तीत जास्त संभाव्य आवाज) दरम्यान आहेत, ०.8 च्या पूर्वनिर्धारीतसह.</t>
   </si>
   <si>
     <t>प्रक्षेप</t>
   </si>
   <si>
-    <t>आपण रेखीय (डीफॉल्ट) किंवा लोगारिथमिक प्रक्षोभक निवडू शकता.</t>
+    <t>आपण रेखीय(पूर्वनिर्धारीत) किंवा लोगारिथमिक प्रक्षोभकनिवडू शकता.</t>
   </si>
   <si>
     <t>कालावधी</t>
   </si>
   <si>
-    <t>आवश्यक कालावधी प्रविष्ट करण्यासाठी टाइप करा (किंवा कीबोर्ड बाण वापरा). आपल्याला पाहिजे असलेला पहिला अंक हायलाइट केल्यास, संपूर्ण क्रमांक टाइप करा. आवश्यक असलेला पहिला अंक हायलाइट न केल्यास, प्रथम कीड वर जाण्यासाठी कीबोर्ड वरील डावा किंवा उजवा बाण वापरा, नंतर टाइप करा. आपण टाइप करण्याऐवजी कीबोर्ड अप किंवा डाउन एरोसह हायलाइट केलेला अंक वाढवू शकता.</t>
-  </si>
-  <si>
-    <t>कर्सर तयार करताना, कालावधी 30.000 सेकंदात आरंभ होते (डीटीएमएफ जनरेटर सोडून जे डीफॉल्ट 1.000 सेकंदात असते). तथापि, आपला अंतिम प्रविष्ट केलेला कालावधी नेहमीच लक्षात राहतो.</t>
-  </si>
-  <si>
-    <t>निवड प्रदेश पुनर्स्थित करताना, कालावधी नेहमीच त्या निवडीचा अचूक कालावधी जवळच्या ऑडिओ नमुना दाखवते.</t>
-  </si>
-  <si>
-    <t>कमांड बटणे</t>
-  </si>
-  <si>
-    <t>कमांड बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
-  </si>
-  <si>
-    <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
-  </si>
-  <si>
-    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
-  </si>
-  <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
-    <t>दुवे</t>
-  </si>
-  <si>
-    <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
-  </si>
-  <si>
-    <t>| &lt;मेनू व्युत्पन्न करा</t>
+    <t>आवश्यक कालावधी प्रविष्ट करण्यासाठी लेखन करा (किंवा कळफलक बाण वापरा).आपल्याला पाहिजे असलेला पहिला अंक चित्तवेधक केल्यास, संपूर्ण संख्या लेखन करा.आवश्यक असलेला पहिला अंक चित्तवेधक न केल्यास, प्रथम कीडवर जाण्यासाठी कळफलक वरीलडावा किंवाउजवा बाण वापरा, नंतर लेखन करा.आपण लेखन करण्या ऐवजी कळफलकवर किंवाखाली बाणासह चित्तवेधक केलेला अंक वाढवू शकता.</t>
+  </si>
+  <si>
+    <t>कर्सर तयार करताना , कालावधी 30.000 सेकंदात आरंभ होते (डीटीएमएफ निर्माता वगळता जे पूर्वनिर्धारीत 1.000 सेकंदात असते).तथापि, आपला अंतिम प्रविष्ट केलेला कालावधी नेहमीच लक्षात राहतो.</t>
+  </si>
+  <si>
+    <t>निवड प्रदेश पुनर्स्थित करताना , कालावधी नेहमीच त्या निवडीचा अचूक कालावधी जवळच्या ध्वनीनमुना दाखवते.</t>
+  </si>
+  <si>
+    <t>आज्ञा कळ</t>
+  </si>
+  <si>
+    <t>आज्ञा कळावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
+  </si>
+  <si>
+    <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे पूर्वनिर्धारीत व्यवस्थापित करण्यास आणि साधनाबद्दल काही तपशील पाहण्यास सक्षम करते.तपशीलांसाठीपूर्वनिर्धारीत्स व्यवस्थापित करा पहा</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान समायोजनसह लागू केल्यास ध्वनीला काय वाटेल याचा एक छोटासापूर्वावलोकन वाजवा करतो.पूर्वावलोकनची लांबीसंपादन&gt; प्राधान्ये&gt;पुनर्मुद्रण मधील आपल्या द्वारे निश्चित केली जाते, पूर्वनिर्धारीत  6 सेकंद असते.</t>
+  </si>
+  <si>
+    <t>ठीक आहे सध्याच्या प्रभाव समायोजनसह निवडलेल्या ध्वनीवर प्रभाव लागू करते आणि संवाद बंद करते</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील माहिती पुस्तिकामध्ये आपल्याला योग्य पृष्ठावर आणते</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +269,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -377,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -411,6 +387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,404 +563,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.7109375" customWidth="1"/>
+    <col min="2" max="2" width="101.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
